--- a/sources/case/GetInstanceInfo.xlsx
+++ b/sources/case/GetInstanceInfo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>CaseID</t>
   </si>
@@ -77,12 +77,6 @@
     <t>[]</t>
   </si>
   <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>灰太狼</t>
-  </si>
-  <si>
     <t>form_key_field</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
   </si>
   <si>
     <t>tasks</t>
-  </si>
-  <si>
-    <t>[{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","assignee_alias":"7e2c4e7a-b2e4-11e7-93d8-5254001aba5d","assignees":"7e2c4e7a-b2e4-11e7-93d8-5254001aba5d","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"等待审批","assignee_type":"reporting_to","is_deleted":false,"extra":"{\"form_id\":\"\",\"form_name\":\"employee_adjust\",\"form_record_id\":\"183aab14-b7cd-11e7-83f5-5254001aba5d\",\"form_record_image_url\":\"http://krhrimg.oss-cn-beijing.aliyuncs.com/19632d2e-b7cd-11e7-9310-5254001aba5d/screenshot/19632d38-b7cd-11e7-9310-5254001aba5d/employee_adjust-183aab14-b7cd-11e7-83f5-5254001aba5d.png\",\"form_service\":\"hr\"}","TargetType":"","CreaterName":"灰太狼","comment":"","status":"approving"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","assignee_alias":"7e2cf1a7-b2e4-11e7-93d8-5254001aba5d","assignees":"7e2cf1a7-b2e4-11e7-93d8-5254001aba5d","title":"测试10的调整","type":"approval","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"reporting_to","is_deleted":false,"extra":"{\"form_id\":\"\",\"form_name\":\"employee_adjust\",\"form_record_id\":\"183aab14-b7cd-11e7-83f5-5254001aba5d\",\"form_record_image_url\":\"http://krhrimg.oss-cn-beijing.aliyuncs.com/19632d2e-b7cd-11e7-9310-5254001aba5d/screenshot/19632d38-b7cd-11e7-9310-5254001aba5d/employee_adjust-183aab14-b7cd-11e7-83f5-5254001aba5d.png\",\"form_service\":\"hr\"}","TargetType":"","CreaterName":"灰太狼","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","assignee_alias":"7e2dba5c-b2e4-11e7-93d8-5254001aba5d","assignees":"7e2dba5c-b2e4-11e7-93d8-5254001aba5d","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"reporting_to","is_deleted":false,"extra":"{\"form_id\":\"\",\"form_name\":\"employee_adjust\",\"form_record_id\":\"183aab14-b7cd-11e7-83f5-5254001aba5d\",\"form_record_image_url\":\"http://krhrimg.oss-cn-beijing.aliyuncs.com/19632d2e-b7cd-11e7-9310-5254001aba5d/screenshot/19632d38-b7cd-11e7-9310-5254001aba5d/employee_adjust-183aab14-b7cd-11e7-83f5-5254001aba5d.png\",\"form_service\":\"hr\"}","TargetType":"","CreaterName":"灰太狼","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","assignee_alias":"7e2f1608-b2e4-11e7-93d8-5254001aba5d","assignees":"7e2f1608-b2e4-11e7-93d8-5254001aba5d","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"reporting_to","is_deleted":false,"extra":"{\"form_id\":\"\",\"form_name\":\"employee_adjust\",\"form_record_id\":\"183aab14-b7cd-11e7-83f5-5254001aba5d\",\"form_record_image_url\":\"http://krhrimg.oss-cn-beijing.aliyuncs.com/19632d2e-b7cd-11e7-9310-5254001aba5d/screenshot/19632d38-b7cd-11e7-9310-5254001aba5d/employee_adjust-183aab14-b7cd-11e7-83f5-5254001aba5d.png\",\"form_service\":\"hr\"}","TargetType":"","CreaterName":"灰太狼","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","assignee_alias":"7e2f1608-b2e4-11e7-93d8-5254001aba5d","assignees":"7e2f1608-b2e4-11e7-93d8-5254001aba5d","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"login_user_department_manager","is_deleted":false,"extra":"{\"form_id\":\"\",\"form_name\":\"employee_adjust\",\"form_record_id\":\"183aab14-b7cd-11e7-83f5-5254001aba5d\",\"form_record_image_url\":\"http://krhrimg.oss-cn-beijing.aliyuncs.com/19632d2e-b7cd-11e7-9310-5254001aba5d/screenshot/19632d38-b7cd-11e7-9310-5254001aba5d/employee_adjust-183aab14-b7cd-11e7-83f5-5254001aba5d.png\",\"form_service\":\"hr\"}","TargetType":"","CreaterName":"灰太狼","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","assignee_alias":"7e2f1608-b2e4-11e7-93d8-5254001aba5d","assignees":"7e2f1608-b2e4-11e7-93d8-5254001aba5d","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"department_manager","is_deleted":false,"extra":"{\"form_id\":\"\",\"form_name\":\"employee_adjust\",\"form_record_id\":\"183aab14-b7cd-11e7-83f5-5254001aba5d\",\"form_record_image_url\":\"http://krhrimg.oss-cn-beijing.aliyuncs.com/19632d2e-b7cd-11e7-9310-5254001aba5d/screenshot/19632d38-b7cd-11e7-9310-5254001aba5d/employee_adjust-183aab14-b7cd-11e7-83f5-5254001aba5d.png\",\"form_service\":\"hr\"}","TargetType":"","CreaterName":"灰太狼","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","assignee_alias":"b8a23753-0f75-11e7-9aa4-00163e007053","assignees":"b8a23753-0f75-11e7-9aa4-00163e007053","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"employee","is_deleted":false,"extra":"{\"form_id\":\"\",\"form_name\":\"employee_adjust\",\"form_record_id\":\"183aab14-b7cd-11e7-83f5-5254001aba5d\",\"form_record_image_url\":\"http://krhrimg.oss-cn-beijing.aliyuncs.com/19632d2e-b7cd-11e7-9310-5254001aba5d/screenshot/19632d38-b7cd-11e7-9310-5254001aba5d/employee_adjust-183aab14-b7cd-11e7-83f5-5254001aba5d.png\",\"form_service\":\"hr\"}","TargetType":"","CreaterName":"灰太狼","comment":"","status":"initial"}]</t>
   </si>
   <si>
     <t>status</t>
@@ -180,6 +171,10 @@
   </si>
   <si>
     <t>${GetInstances.items[0].uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","assignee_alias":"7e2c4e7a-b2e4-11e7-93d8-5254001aba5d","assignees":"7e2c4e7a-b2e4-11e7-93d8-5254001aba5d","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"等待审批","assignee_type":"reporting_to","is_deleted":false,"TargetType":"","comment":"","status":"approving"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","assignee_alias":"7e2cf1a7-b2e4-11e7-93d8-5254001aba5d","assignees":"7e2cf1a7-b2e4-11e7-93d8-5254001aba5d","title":"测试10的调整","type":"approval","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"reporting_to","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","assignee_alias":"7e2dba5c-b2e4-11e7-93d8-5254001aba5d","assignees":"7e2dba5c-b2e4-11e7-93d8-5254001aba5d","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"reporting_to","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","assignee_alias":"7e2f1608-b2e4-11e7-93d8-5254001aba5d","assignees":"7e2f1608-b2e4-11e7-93d8-5254001aba5d","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"reporting_to","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","assignee_alias":"7e2f1608-b2e4-11e7-93d8-5254001aba5d","assignees":"7e2f1608-b2e4-11e7-93d8-5254001aba5d","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"login_user_department_manager","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","assignee_alias":"7e2f1608-b2e4-11e7-93d8-5254001aba5d","assignees":"7e2f1608-b2e4-11e7-93d8-5254001aba5d","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"department_manager","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","assignee_alias":"b8a23753-0f75-11e7-9aa4-00163e007053","assignees":"b8a23753-0f75-11e7-9aa4-00163e007053","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"employee","is_deleted":false,"TargetType":"","comment":"","status":"initial"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +554,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -590,15 +585,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -609,10 +604,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -621,24 +616,23 @@
     <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.625" customWidth="1"/>
-    <col min="19" max="19" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.625" customWidth="1"/>
+    <col min="18" max="18" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -691,15 +685,12 @@
         <v>42</v>
       </c>
       <c r="R1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -747,13 +738,10 @@
         <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="R2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/GetInstanceInfo.xlsx
+++ b/sources/case/GetInstanceInfo.xlsx
@@ -174,7 +174,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","assignee_alias":"7e2c4e7a-b2e4-11e7-93d8-5254001aba5d","assignees":"7e2c4e7a-b2e4-11e7-93d8-5254001aba5d","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"等待审批","assignee_type":"reporting_to","is_deleted":false,"TargetType":"","comment":"","status":"approving"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","assignee_alias":"7e2cf1a7-b2e4-11e7-93d8-5254001aba5d","assignees":"7e2cf1a7-b2e4-11e7-93d8-5254001aba5d","title":"测试10的调整","type":"approval","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"reporting_to","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","assignee_alias":"7e2dba5c-b2e4-11e7-93d8-5254001aba5d","assignees":"7e2dba5c-b2e4-11e7-93d8-5254001aba5d","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"reporting_to","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","assignee_alias":"7e2f1608-b2e4-11e7-93d8-5254001aba5d","assignees":"7e2f1608-b2e4-11e7-93d8-5254001aba5d","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"reporting_to","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","assignee_alias":"7e2f1608-b2e4-11e7-93d8-5254001aba5d","assignees":"7e2f1608-b2e4-11e7-93d8-5254001aba5d","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"login_user_department_manager","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","assignee_alias":"7e2f1608-b2e4-11e7-93d8-5254001aba5d","assignees":"7e2f1608-b2e4-11e7-93d8-5254001aba5d","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"department_manager","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","assignee_alias":"b8a23753-0f75-11e7-9aa4-00163e007053","assignees":"b8a23753-0f75-11e7-9aa4-00163e007053","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"employee","is_deleted":false,"TargetType":"","comment":"","status":"initial"}]</t>
+    <t>[{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"等待审批","assignee_type":"reporting_to","is_deleted":false,"TargetType":"","comment":"","status":"approving"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","title":"测试10的调整","type":"approval","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"reporting_to","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"reporting_to","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"reporting_to","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"login_user_department_manager","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"department_manager","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"employee","is_deleted":false,"TargetType":"","comment":"","status":"initial"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/sources/case/GetInstanceInfo.xlsx
+++ b/sources/case/GetInstanceInfo.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>CaseID</t>
   </si>
@@ -63,12 +63,6 @@
   </si>
   <si>
     <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
-  </si>
-  <si>
-    <t>form_record_html</t>
-  </si>
-  <si>
-    <t>&lt;html&gt;&lt;head&gt;&lt;meta content="text/html;charset=utf-8" http-equiv="Content-Type"/&gt;&lt;link type="text/css" rel="stylesheet" href="/css/server-side-core.css"/&gt;&lt;/head&gt;&lt;body&gt;&lt;div id="root"&gt;&lt;div class="custom_form_wrap" style="color:#000;width:100%;margin:0px 0;height:100%;padding:20px 0;" data-reactroot="" data-reactid="1" data-react-checksum="1102818465"&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="2"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="3"&gt;&lt;!-- react-text: 4 --&gt;调整类型&lt;!-- /react-text --&gt;&lt;!-- react-text: 5 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="6"&gt;transfer&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="7"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="8"&gt;&lt;!-- react-text: 9 --&gt;姓名&lt;!-- /react-text --&gt;&lt;!-- react-text: 10 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="11"&gt;测试10&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="12"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="13"&gt;&lt;!-- react-text: 14 --&gt;编号&lt;!-- /react-text --&gt;&lt;!-- react-text: 15 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="16"&gt;20&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="17"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="18"&gt;&lt;!-- react-text: 19 --&gt;部门&lt;!-- /react-text --&gt;&lt;!-- react-text: 20 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="21"&gt;部门1&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="22"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="23"&gt;&lt;!-- react-text: 24 --&gt;岗位&lt;!-- /react-text --&gt;&lt;!-- react-text: 25 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="26"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="27"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="28"&gt;&lt;!-- react-text: 29 --&gt;汇报上级&lt;!-- /react-text --&gt;&lt;!-- react-text: 30 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="31"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="32"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="33"&gt;&lt;!-- react-text: 34 --&gt;下属人数&lt;!-- /react-text --&gt;&lt;!-- react-text: 35 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="36"&gt;0人&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="37"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="38"&gt;&lt;!-- react-text: 39 --&gt;调整后的部门&lt;!-- /react-text --&gt;&lt;!-- react-text: 40 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="41"&gt;部门2&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="42"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="43"&gt;&lt;!-- react-text: 44 --&gt;调整后的岗位&lt;!-- /react-text --&gt;&lt;!-- react-text: 45 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="46"&gt;岗位2&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="47"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="48"&gt;&lt;!-- react-text: 49 --&gt;调整后的汇报上级&lt;!-- /react-text --&gt;&lt;!-- react-text: 50 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="51"&gt;测试12&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="52"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="53"&gt;&lt;!-- react-text: 54 --&gt;调整后的下属人数&lt;!-- /react-text --&gt;&lt;!-- react-text: 55 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="56"&gt;1人&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="57"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="58"&gt;&lt;!-- react-text: 59 --&gt;生效日期&lt;!-- /react-text --&gt;&lt;!-- react-text: 60 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="61"&gt;2017-10-24&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="62"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="63"&gt;&lt;!-- react-text: 64 --&gt;备注&lt;!-- /react-text --&gt;&lt;!-- react-text: 65 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="66"&gt;调整审批测试&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</t>
   </si>
   <si>
     <t>attachments</t>
@@ -554,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -585,15 +579,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -604,35 +598,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.625" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.625" customWidth="1"/>
-    <col min="18" max="18" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.625" customWidth="1"/>
+    <col min="17" max="17" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -682,15 +675,12 @@
         <v>40</v>
       </c>
       <c r="Q1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -735,13 +725,10 @@
         <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/GetInstanceInfo.xlsx
+++ b/sources/case/GetInstanceInfo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>CaseID</t>
   </si>
@@ -169,6 +169,14 @@
   </si>
   <si>
     <t>[{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"等待审批","assignee_type":"reporting_to","is_deleted":false,"TargetType":"","comment":"","status":"approving"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","title":"测试10的调整","type":"approval","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"reporting_to","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"reporting_to","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"reporting_to","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"login_user_department_manager","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"department_manager","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"employee","is_deleted":false,"TargetType":"","comment":"","status":"initial"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>form_record_html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;html&gt;&lt;head&gt;&lt;meta content="text/html;charset=utf-8" http-equiv="Content-Type"/&gt;&lt;link type="text/css" rel="stylesheet" href="/css/server-side-core.css"/&gt;&lt;/head&gt;&lt;body&gt;&lt;div id="root"&gt;&lt;div class="custom_form_wrap" style="color:#000;width:100%;margin:0px 0;height:100%;padding:20px 0;" data-reactroot="" data-reactid="1" data-react-checksum="773308844"&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="2"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="3"&gt;&lt;!-- react-text: 4 --&gt;调整类型&lt;!-- /react-text --&gt;&lt;!-- react-text: 5 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="6"&gt;transfer&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="7"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="8"&gt;&lt;!-- react-text: 9 --&gt;姓名&lt;!-- /react-text --&gt;&lt;!-- react-text: 10 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="11"&gt;测试10&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="12"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="13"&gt;&lt;!-- react-text: 14 --&gt;编号&lt;!-- /react-text --&gt;&lt;!-- react-text: 15 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="16"&gt;20&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="17"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="18"&gt;&lt;!-- react-text: 19 --&gt;部门&lt;!-- /react-text --&gt;&lt;!-- react-text: 20 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="21"&gt;organization_1&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="22"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="23"&gt;&lt;!-- react-text: 24 --&gt;岗位&lt;!-- /react-text --&gt;&lt;!-- react-text: 25 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="26"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="27"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="28"&gt;&lt;!-- react-text: 29 --&gt;汇报上级&lt;!-- /react-text --&gt;&lt;!-- react-text: 30 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="31"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="32"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="33"&gt;&lt;!-- react-text: 34 --&gt;下属人数&lt;!-- /react-text --&gt;&lt;!-- react-text: 35 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="36"&gt;0人&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="37"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="38"&gt;&lt;!-- react-text: 39 --&gt;调整后的部门&lt;!-- /react-text --&gt;&lt;!-- react-text: 40 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="41"&gt;organization_2&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="42"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="43"&gt;&lt;!-- react-text: 44 --&gt;调整后的岗位&lt;!-- /react-text --&gt;&lt;!-- react-text: 45 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="46"&gt;position_2&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="47"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="48"&gt;&lt;!-- react-text: 49 --&gt;调整后的汇报上级&lt;!-- /react-text --&gt;&lt;!-- react-text: 50 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="51"&gt;测试12&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="52"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="53"&gt;&lt;!-- react-text: 54 --&gt;调整后的下属人数&lt;!-- /react-text --&gt;&lt;!-- react-text: 55 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="56"&gt;1人&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="57"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="58"&gt;&lt;!-- react-text: 59 --&gt;生效日期&lt;!-- /react-text --&gt;&lt;!-- react-text: 60 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="61"&gt;2017-10-24&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="62"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="63"&gt;&lt;!-- react-text: 64 --&gt;备注&lt;!-- /react-text --&gt;&lt;!-- react-text: 65 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="66"&gt;调整审批测试&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,34 +606,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.625" customWidth="1"/>
-    <col min="17" max="17" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.75" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.625" customWidth="1"/>
+    <col min="18" max="18" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -633,52 +642,55 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>36</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>38</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -686,48 +698,51 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>39</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>42</v>
       </c>
     </row>

--- a/sources/case/GetInstanceInfo.xlsx
+++ b/sources/case/GetInstanceInfo.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>CaseID</t>
   </si>
@@ -57,93 +57,6 @@
   </si>
   <si>
     <t>application/json</t>
-  </si>
-  <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
-  </si>
-  <si>
-    <t>attachments</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>form_key_field</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>approval_type</t>
-  </si>
-  <si>
-    <t>{"duplicate_type_display":""}</t>
-  </si>
-  <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>a8afd9f1-0f75-11e7-9aa4-00163e007053</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>测试10的调整</t>
-  </si>
-  <si>
-    <t>from_service</t>
-  </si>
-  <si>
-    <t>hr</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>等待$NEXT_APPROVER$批复</t>
-  </si>
-  <si>
-    <t>is_deleted</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
-  </si>
-  <si>
-    <t>current_approver_status</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>approval_type_id</t>
-  </si>
-  <si>
-    <t>95d72f09-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>form_name</t>
-  </si>
-  <si>
-    <t>employee_adjust</t>
-  </si>
-  <si>
-    <t>sync_field</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>tasks</t>
   </si>
   <si>
     <t>status</t>
@@ -168,15 +81,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"等待审批","assignee_type":"reporting_to","is_deleted":false,"TargetType":"","comment":"","status":"approving"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","title":"测试10的调整","type":"approval","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"reporting_to","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"reporting_to","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"reporting_to","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"login_user_department_manager","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"department_manager","is_deleted":false,"TargetType":"","comment":"","status":"initial"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","owner":"","actual_executor":"","TargetValue":"","for_sub_entity_id":"","title":"测试10的调整","type":"approval","created_by":"5ceb080b-0e25-11e7-b0e5-00163e007053","content":"测试10的调整, 等待您的审批，申请详情见附件图片","actual_executor_name":"","result":"","assignee_type":"employee","is_deleted":false,"TargetType":"","comment":"","status":"initial"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>form_record_html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;html&gt;&lt;head&gt;&lt;meta content="text/html;charset=utf-8" http-equiv="Content-Type"/&gt;&lt;link type="text/css" rel="stylesheet" href="/css/server-side-core.css"/&gt;&lt;/head&gt;&lt;body&gt;&lt;div id="root"&gt;&lt;div class="custom_form_wrap" style="color:#000;width:100%;margin:0px 0;height:100%;padding:20px 0;" data-reactroot="" data-reactid="1" data-react-checksum="773308844"&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="2"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="3"&gt;&lt;!-- react-text: 4 --&gt;调整类型&lt;!-- /react-text --&gt;&lt;!-- react-text: 5 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="6"&gt;transfer&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="7"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="8"&gt;&lt;!-- react-text: 9 --&gt;姓名&lt;!-- /react-text --&gt;&lt;!-- react-text: 10 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="11"&gt;测试10&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="12"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="13"&gt;&lt;!-- react-text: 14 --&gt;编号&lt;!-- /react-text --&gt;&lt;!-- react-text: 15 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="16"&gt;20&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="17"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="18"&gt;&lt;!-- react-text: 19 --&gt;部门&lt;!-- /react-text --&gt;&lt;!-- react-text: 20 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="21"&gt;organization_1&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="22"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="23"&gt;&lt;!-- react-text: 24 --&gt;岗位&lt;!-- /react-text --&gt;&lt;!-- react-text: 25 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="26"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="27"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="28"&gt;&lt;!-- react-text: 29 --&gt;汇报上级&lt;!-- /react-text --&gt;&lt;!-- react-text: 30 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="31"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="32"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="33"&gt;&lt;!-- react-text: 34 --&gt;下属人数&lt;!-- /react-text --&gt;&lt;!-- react-text: 35 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="36"&gt;0人&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="37"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="38"&gt;&lt;!-- react-text: 39 --&gt;调整后的部门&lt;!-- /react-text --&gt;&lt;!-- react-text: 40 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="41"&gt;organization_2&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="42"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="43"&gt;&lt;!-- react-text: 44 --&gt;调整后的岗位&lt;!-- /react-text --&gt;&lt;!-- react-text: 45 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="46"&gt;position_2&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="47"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="48"&gt;&lt;!-- react-text: 49 --&gt;调整后的汇报上级&lt;!-- /react-text --&gt;&lt;!-- react-text: 50 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="51"&gt;测试12&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="52"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="53"&gt;&lt;!-- react-text: 54 --&gt;调整后的下属人数&lt;!-- /react-text --&gt;&lt;!-- react-text: 55 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="56"&gt;1人&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="57"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="58"&gt;&lt;!-- react-text: 59 --&gt;生效日期&lt;!-- /react-text --&gt;&lt;!-- react-text: 60 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="61"&gt;2017-10-24&lt;/div&gt;&lt;/div&gt;&lt;div class="form-group" style="padding:0px 0px 0px 15px;margin-bottom:5px;" data-reactid="62"&gt;&lt;label class="print-control-label" style="color:rgba(0, 0, 0, 0.53);font-size:16px;" data-reactid="63"&gt;&lt;!-- react-text: 64 --&gt;备注&lt;!-- /react-text --&gt;&lt;!-- react-text: 65 --&gt;：&lt;!-- /react-text --&gt;&lt;/label&gt;&lt;div class="print-form-control" style="display:inline-block;color:#000;font-size:18px;font-wight:bold;" data-reactid="66"&gt;调整审批测试&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</t>
+    <t>GetInstanceInfo_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +461,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -570,10 +475,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -587,15 +492,23 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -606,148 +519,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.75" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.625" customWidth="1"/>
-    <col min="18" max="18" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" t="s">
-        <v>42</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sources/case/GetInstanceInfo.xlsx
+++ b/sources/case/GetInstanceInfo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>CaseID</t>
   </si>
@@ -81,8 +81,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetInstanceInfo_2</t>
+    <t>approved</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancelled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rejected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${GetInstances.items[0].uuid}</t>
+  </si>
+  <si>
+    <t>GetInstanceInfo_approving</t>
+  </si>
+  <si>
+    <t>GetInstanceInfo_cancelled</t>
+  </si>
+  <si>
+    <t>GetInstanceInfo_approved</t>
+  </si>
+  <si>
+    <t>GetInstanceInfo_rejected</t>
   </si>
 </sst>
 </file>
@@ -475,15 +498,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -505,10 +528,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -519,15 +566,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -549,10 +596,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/GetInstanceInfo.xlsx
+++ b/sources/case/GetInstanceInfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -568,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
